--- a/EduAnalysisTool/input_tool/edu_table_helper_EN_AFG.xlsx
+++ b/EduAnalysisTool/input_tool/edu_table_helper_EN_AFG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42ED4C84-13F7-4D4B-B418-17E904795CEE}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E689141-78F2-4A01-B41B-06D98EDEF146}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="65">
   <si>
     <t>tab</t>
   </si>
@@ -158,85 +158,88 @@
     <t>% of school-aged children attending primary school who are at least 2 years above the intended age for their grade</t>
   </si>
   <si>
+    <t>% of school-aged children whose education was disrupted due to the school being occupied by displaced persons</t>
+  </si>
+  <si>
+    <t>% of OoS children</t>
+  </si>
+  <si>
+    <t>There is a lack of interest/Education is not a priority either for the child or the household</t>
+  </si>
+  <si>
+    <t>non_formal</t>
+  </si>
+  <si>
+    <t>wgq</t>
+  </si>
+  <si>
+    <t>WGQ</t>
+  </si>
+  <si>
+    <t>% of school-aged children with disability 3 -  the level of inclusion is any 1 domain/question is coded A LOT OF DIFFICULTY or CANNOT DO AT ALL</t>
+  </si>
+  <si>
+    <t>other WGQ parameters</t>
+  </si>
+  <si>
+    <t>% of school-aged children with disability 2 -  the level of inclusion is at least 2 domains/questions are coded SOME DIFFICULTY or any 1 domain/question is coded</t>
+  </si>
+  <si>
+    <t>cannot do at all -- % of school-aged children with at least one of WG-SS component is at level 'cannot do at all'</t>
+  </si>
+  <si>
+    <t>a lot of difficulty -- % of school-aged children with at least one of WG-SS component is at level 'a lot of difficulty'</t>
+  </si>
+  <si>
+    <t>some difficulty -- % of school-aged children with at least one of WG-SS component is at level 'some difficulty'</t>
+  </si>
+  <si>
+    <t>no difficulty -- % of school-aged children with at least one of WG-SS component is at level 'no difficulty'</t>
+  </si>
+  <si>
+    <t>% of school-aged children whose education was disrupted due to the school being occupied by armed groups</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>There is a ban preventing child from attending</t>
+  </si>
+  <si>
+    <t>No school in the area or school is too far</t>
+  </si>
+  <si>
+    <t>Cannot afford the direct costs of education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public school </t>
+  </si>
+  <si>
+    <t>private school</t>
+  </si>
+  <si>
+    <t>CBE</t>
+  </si>
+  <si>
+    <t>literacy classes</t>
+  </si>
+  <si>
+    <t>Madrasa</t>
+  </si>
+  <si>
+    <t>Don't know/I don’t want to answer</t>
+  </si>
+  <si>
+    <t>Special education -- Sign language, braille writing/reading</t>
+  </si>
+  <si>
+    <t>type school</t>
+  </si>
+  <si>
+    <t>% of school-aged children attending primary second cycle school who are at least 2 years above the intended age for their grade</t>
+  </si>
+  <si>
     <t>% of school-aged children attending secondary school who are at least 2 years above the intended age for their grade</t>
-  </si>
-  <si>
-    <t>% of school-aged children whose education was disrupted due to the school being occupied by displaced persons</t>
-  </si>
-  <si>
-    <t>% of OoS children</t>
-  </si>
-  <si>
-    <t>There is a lack of interest/Education is not a priority either for the child or the household</t>
-  </si>
-  <si>
-    <t>non_formal</t>
-  </si>
-  <si>
-    <t>wgq</t>
-  </si>
-  <si>
-    <t>WGQ</t>
-  </si>
-  <si>
-    <t>% of school-aged children with disability 3 -  the level of inclusion is any 1 domain/question is coded A LOT OF DIFFICULTY or CANNOT DO AT ALL</t>
-  </si>
-  <si>
-    <t>other WGQ parameters</t>
-  </si>
-  <si>
-    <t>% of school-aged children with disability 2 -  the level of inclusion is at least 2 domains/questions are coded SOME DIFFICULTY or any 1 domain/question is coded</t>
-  </si>
-  <si>
-    <t>cannot do at all -- % of school-aged children with at least one of WG-SS component is at level 'cannot do at all'</t>
-  </si>
-  <si>
-    <t>a lot of difficulty -- % of school-aged children with at least one of WG-SS component is at level 'a lot of difficulty'</t>
-  </si>
-  <si>
-    <t>some difficulty -- % of school-aged children with at least one of WG-SS component is at level 'some difficulty'</t>
-  </si>
-  <si>
-    <t>no difficulty -- % of school-aged children with at least one of WG-SS component is at level 'no difficulty'</t>
-  </si>
-  <si>
-    <t>% of school-aged children whose education was disrupted due to the school being occupied by armed groups</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>There is a ban preventing child from attending</t>
-  </si>
-  <si>
-    <t>No school in the area or school is too far</t>
-  </si>
-  <si>
-    <t>Cannot afford the direct costs of education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public school </t>
-  </si>
-  <si>
-    <t>private school</t>
-  </si>
-  <si>
-    <t>CBE</t>
-  </si>
-  <si>
-    <t>literacy classes</t>
-  </si>
-  <si>
-    <t>Madrasa</t>
-  </si>
-  <si>
-    <t>Don't know/I don’t want to answer</t>
-  </si>
-  <si>
-    <t>Special education -- Sign language, braille writing/reading</t>
-  </si>
-  <si>
-    <t>type school</t>
   </si>
 </sst>
 </file>
@@ -275,7 +278,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,12 +289,6 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFFEFC1"/>
       </patternFill>
     </fill>
   </fills>
@@ -308,15 +305,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -715,13 +709,13 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -729,7 +723,7 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -737,13 +731,13 @@
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>38</v>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G5" s="4" t="s">
-        <v>51</v>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +750,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,51 +785,51 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>47</v>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G5" s="5" t="s">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G6" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -847,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36B93C1-E6B8-4A90-A407-38EEDC988F7A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -902,23 +896,25 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -972,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -980,34 +976,34 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>53</v>
+      <c r="G2" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>40</v>
+      <c r="G3" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>55</v>
+      <c r="G4" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="7" t="s">
-        <v>54</v>
+      <c r="G5" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="6" t="s">
-        <v>52</v>
+      <c r="G6" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9C0465-1C7D-4B1F-A8C2-33AD3A9FD7BD}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1437,7 +1433,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1448,55 +1444,55 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>57</v>
+      <c r="G3" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="7" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G8" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/EduAnalysisTool/input_tool/edu_table_helper_EN_AFG.xlsx
+++ b/EduAnalysisTool/input_tool/edu_table_helper_EN_AFG.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E689141-78F2-4A01-B41B-06D98EDEF146}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08110A2B-5365-4BE0-A6B2-29EE8BFFB8BD}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
     <sheet name="overaged" sheetId="9" r:id="rId2"/>
     <sheet name="out_of_school" sheetId="3" r:id="rId3"/>
-    <sheet name="level1" sheetId="5" r:id="rId4"/>
-    <sheet name="ece" sheetId="4" r:id="rId5"/>
+    <sheet name="ece" sheetId="4" r:id="rId4"/>
+    <sheet name="level1" sheetId="5" r:id="rId5"/>
     <sheet name="level2" sheetId="6" r:id="rId6"/>
     <sheet name="level3" sheetId="7" r:id="rId7"/>
     <sheet name="level4" sheetId="8" r:id="rId8"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
   <si>
     <t>tab</t>
   </si>
@@ -98,9 +98,6 @@
     <t>% of school-aged children whose education was disrupted due to natural hazards</t>
   </si>
   <si>
-    <t>% of school-aged children  who did not attend school or any early childhood education program at any time during the 2023-2024 school year</t>
-  </si>
-  <si>
     <t>% of school-aged children of primary school age currently attending primary or higher</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>School Attendance Profile: primary</t>
   </si>
   <si>
-    <t>% of school-aged children of intermediate school level age currently attending intermediate school level or higher</t>
-  </si>
-  <si>
     <t>School Attendance Profile: intermediate -- secondary</t>
   </si>
   <si>
@@ -164,82 +158,88 @@
     <t>% of OoS children</t>
   </si>
   <si>
+    <t>non_formal</t>
+  </si>
+  <si>
+    <t>wgq</t>
+  </si>
+  <si>
+    <t>WGQ</t>
+  </si>
+  <si>
+    <t>% of school-aged children with disability 3 -  the level of inclusion is any 1 domain/question is coded A LOT OF DIFFICULTY or CANNOT DO AT ALL</t>
+  </si>
+  <si>
+    <t>other WGQ parameters</t>
+  </si>
+  <si>
+    <t>% of school-aged children with disability 2 -  the level of inclusion is at least 2 domains/questions are coded SOME DIFFICULTY or any 1 domain/question is coded</t>
+  </si>
+  <si>
+    <t>cannot do at all -- % of school-aged children with at least one of WG-SS component is at level 'cannot do at all'</t>
+  </si>
+  <si>
+    <t>a lot of difficulty -- % of school-aged children with at least one of WG-SS component is at level 'a lot of difficulty'</t>
+  </si>
+  <si>
+    <t>some difficulty -- % of school-aged children with at least one of WG-SS component is at level 'some difficulty'</t>
+  </si>
+  <si>
+    <t>no difficulty -- % of school-aged children with at least one of WG-SS component is at level 'no difficulty'</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public school </t>
+  </si>
+  <si>
+    <t>private school</t>
+  </si>
+  <si>
+    <t>CBE</t>
+  </si>
+  <si>
+    <t>literacy classes</t>
+  </si>
+  <si>
+    <t>Madrasa</t>
+  </si>
+  <si>
+    <t>type school</t>
+  </si>
+  <si>
+    <t>% of school-aged children attending  upper secondary school who are at least 2 years above the intended age for their grade</t>
+  </si>
+  <si>
+    <t>There is a limitation preventing the child from attending</t>
+  </si>
+  <si>
     <t>There is a lack of interest/Education is not a priority either for the child or the household</t>
   </si>
   <si>
-    <t>non_formal</t>
-  </si>
-  <si>
-    <t>wgq</t>
-  </si>
-  <si>
-    <t>WGQ</t>
-  </si>
-  <si>
-    <t>% of school-aged children with disability 3 -  the level of inclusion is any 1 domain/question is coded A LOT OF DIFFICULTY or CANNOT DO AT ALL</t>
-  </si>
-  <si>
-    <t>other WGQ parameters</t>
-  </si>
-  <si>
-    <t>% of school-aged children with disability 2 -  the level of inclusion is at least 2 domains/questions are coded SOME DIFFICULTY or any 1 domain/question is coded</t>
-  </si>
-  <si>
-    <t>cannot do at all -- % of school-aged children with at least one of WG-SS component is at level 'cannot do at all'</t>
-  </si>
-  <si>
-    <t>a lot of difficulty -- % of school-aged children with at least one of WG-SS component is at level 'a lot of difficulty'</t>
-  </si>
-  <si>
-    <t>some difficulty -- % of school-aged children with at least one of WG-SS component is at level 'some difficulty'</t>
-  </si>
-  <si>
-    <t>no difficulty -- % of school-aged children with at least one of WG-SS component is at level 'no difficulty'</t>
-  </si>
-  <si>
-    <t>% of school-aged children whose education was disrupted due to the school being occupied by armed groups</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>There is a ban preventing child from attending</t>
+    <t>Lack of appropriate and accessible school</t>
   </si>
   <si>
     <t>No school in the area or school is too far</t>
   </si>
   <si>
-    <t>Cannot afford the direct costs of education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public school </t>
-  </si>
-  <si>
-    <t>private school</t>
-  </si>
-  <si>
-    <t>CBE</t>
-  </si>
-  <si>
-    <t>literacy classes</t>
-  </si>
-  <si>
-    <t>Madrasa</t>
-  </si>
-  <si>
-    <t>Don't know/I don’t want to answer</t>
-  </si>
-  <si>
-    <t>Special education -- Sign language, braille writing/reading</t>
-  </si>
-  <si>
-    <t>type school</t>
-  </si>
-  <si>
-    <t>% of school-aged children attending primary second cycle school who are at least 2 years above the intended age for their grade</t>
-  </si>
-  <si>
-    <t>% of school-aged children attending secondary school who are at least 2 years above the intended age for their grade</t>
+    <t>Personal or family responsibilities, for female</t>
+  </si>
+  <si>
+    <t>Special education, sign language, braille writing/reading</t>
+  </si>
+  <si>
+    <t>% of school-aged children attending primary second cycle who are at least 2 years above the intended age for their grade</t>
+  </si>
+  <si>
+    <t>% of school-aged children of intermediate school level age currently attending primary second cycle or higher</t>
+  </si>
+  <si>
+    <t>% of school-aged children who attended school or any early childhood education program at any time during the 2024-2025 school year </t>
+  </si>
+  <si>
+    <t>% of school-aged children  who did not attend school or any early childhood education program at any time during the 2024-2025 school year</t>
   </si>
 </sst>
 </file>
@@ -305,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -319,9 +319,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -658,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B085A-F222-4D02-94C7-458C197FFE9F}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -710,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -721,7 +728,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
@@ -729,16 +736,17 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G5" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -785,51 +793,51 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -841,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36B93C1-E6B8-4A90-A407-38EEDC988F7A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,10 +887,10 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -891,29 +899,29 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -923,10 +931,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,48 +970,53 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>52</v>
+      <c r="G2" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>54</v>
+        <v>30</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="6" t="s">
-        <v>53</v>
+      <c r="G5" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="5" t="s">
-        <v>51</v>
+      <c r="G6" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1012,86 +1025,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578C6AC-945F-43C7-88F6-0991BAC5AA47}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675A8981-F8A2-408A-9A14-DF2744D820F7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1138,26 +1076,101 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578C6AC-945F-43C7-88F6-0991BAC5AA47}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1183,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1215,24 +1228,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1258,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1290,24 +1303,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1356,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1371,18 +1384,18 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1394,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9C0465-1C7D-4B1F-A8C2-33AD3A9FD7BD}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,10 +1446,10 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1445,55 +1458,51 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G5" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="G7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G8" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
